--- a/ApostasGeradas/2023-07-16_entradas.xlsx
+++ b/ApostasGeradas/2023-07-16_entradas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Programacao\DadosParaBet\ApostasGeradas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBDCF0A-836B-4CDC-B85A-2A9BB40D20DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272388E2-ABC2-40A0-9037-8EA94F78FC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -49,6 +49,12 @@
     <t>Método</t>
   </si>
   <si>
+    <t>PlacarHome</t>
+  </si>
+  <si>
+    <t>PlacarAway</t>
+  </si>
+  <si>
     <t>16.07.2023</t>
   </si>
   <si>
@@ -67,6 +73,12 @@
     <t>Back Draw</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>SERIE A - ROUND 15</t>
   </si>
   <si>
@@ -104,6 +116,12 @@
   </si>
   <si>
     <t>FCSB</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -466,21 +484,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,22 +531,28 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -535,24 +564,30 @@
         <v>3.3</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>2.9</v>
@@ -564,24 +599,30 @@
         <v>2.5</v>
       </c>
       <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
         <v>18</v>
       </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F4">
         <v>2.5</v>
@@ -593,24 +634,30 @@
         <v>2.8</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -622,7 +669,13 @@
         <v>1.87</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
